--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S4/S4_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S4/S4_lossmod.xlsx
@@ -14,234 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>94.44521134805788</t>
-  </si>
-  <si>
-    <t>95.91369954303121</t>
-  </si>
-  <si>
-    <t>97.30876332825589</t>
-  </si>
-  <si>
-    <t>98.48355388423457</t>
-  </si>
-  <si>
-    <t>99.59307829821444</t>
-  </si>
-  <si>
-    <t>100.83313499619192</t>
-  </si>
-  <si>
-    <t>102.30162319116526</t>
-  </si>
-  <si>
-    <t>103.84353579588728</t>
-  </si>
-  <si>
-    <t>105.38544840060929</t>
-  </si>
-  <si>
-    <t>107.00078541507997</t>
-  </si>
-  <si>
-    <t>108.61612242955064</t>
-  </si>
-  <si>
-    <t>110.23145944402133</t>
-  </si>
-  <si>
-    <t>111.84679645849201</t>
-  </si>
-  <si>
-    <t>113.46213347296268</t>
-  </si>
-  <si>
-    <t>115.07747048743336</t>
-  </si>
-  <si>
-    <t>116.69280750190404</t>
-  </si>
-  <si>
-    <t>118.30814451637471</t>
-  </si>
-  <si>
-    <t>119.85005712109673</t>
-  </si>
-  <si>
-    <t>121.39196972581874</t>
-  </si>
-  <si>
-    <t>123.00730674028941</t>
-  </si>
-  <si>
-    <t>124.62264375476009</t>
-  </si>
-  <si>
-    <t>126.23798076923077</t>
-  </si>
-  <si>
-    <t>127.85331778370144</t>
-  </si>
-  <si>
-    <t>129.46865479817214</t>
-  </si>
-  <si>
-    <t>131.0839918126428</t>
-  </si>
-  <si>
-    <t>132.69932882711348</t>
-  </si>
-  <si>
-    <t>134.31466584158417</t>
-  </si>
-  <si>
-    <t>135.93000285605484</t>
-  </si>
-  <si>
-    <t>137.5453398705255</t>
-  </si>
-  <si>
-    <t>139.16067688499618</t>
-  </si>
-  <si>
-    <t>140.77601389946688</t>
-  </si>
-  <si>
-    <t>142.39135091393757</t>
-  </si>
-  <si>
-    <t>144.0066879284082</t>
-  </si>
-  <si>
-    <t>145.6220249428789</t>
-  </si>
-  <si>
-    <t>147.2373619573496</t>
-  </si>
-  <si>
-    <t>148.85269897182027</t>
-  </si>
-  <si>
-    <t>149.8806407083016</t>
-  </si>
-  <si>
-    <t>466246.30298397335</t>
-  </si>
-  <si>
-    <t>592028.0881757018</t>
-  </si>
-  <si>
-    <t>726097.4188398262</t>
-  </si>
-  <si>
-    <t>889859.0699109165</t>
-  </si>
-  <si>
-    <t>1127599.148687516</t>
-  </si>
-  <si>
-    <t>1388825.2381687178</t>
-  </si>
-  <si>
-    <t>1663425.8434593761</t>
-  </si>
-  <si>
-    <t>1947706.9297343437</t>
-  </si>
-  <si>
-    <t>2228985.2271711566</t>
-  </si>
-  <si>
-    <t>2382126.926921287</t>
-  </si>
-  <si>
-    <t>2311876.7694971077</t>
-  </si>
-  <si>
-    <t>2061702.419694968</t>
-  </si>
-  <si>
-    <t>1868915.2070408314</t>
-  </si>
-  <si>
-    <t>1664032.300216536</t>
-  </si>
-  <si>
-    <t>1426169.3246592293</t>
-  </si>
-  <si>
-    <t>1200484.9318526539</t>
-  </si>
-  <si>
-    <t>990656.0369245395</t>
-  </si>
-  <si>
-    <t>825286.5778078069</t>
-  </si>
-  <si>
-    <t>692425.162203158</t>
-  </si>
-  <si>
-    <t>579661.0818937148</t>
-  </si>
-  <si>
-    <t>510982.7500857662</t>
-  </si>
-  <si>
-    <t>445455.2816490011</t>
-  </si>
-  <si>
-    <t>411972.74676303583</t>
-  </si>
-  <si>
-    <t>377259.40162446816</t>
-  </si>
-  <si>
-    <t>344784.66506878816</t>
-  </si>
-  <si>
-    <t>318537.90680250025</t>
-  </si>
-  <si>
-    <t>294201.8434004985</t>
-  </si>
-  <si>
-    <t>275133.8257163923</t>
-  </si>
-  <si>
-    <t>259110.44617698094</t>
-  </si>
-  <si>
-    <t>245203.76418073906</t>
-  </si>
-  <si>
-    <t>230232.19317762213</t>
-  </si>
-  <si>
-    <t>217429.64874069305</t>
-  </si>
-  <si>
-    <t>207077.34881326655</t>
-  </si>
-  <si>
-    <t>196878.70081983614</t>
-  </si>
-  <si>
-    <t>185848.08036250746</t>
-  </si>
-  <si>
-    <t>175774.2916010168</t>
-  </si>
-  <si>
-    <t>170174.28081337965</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -614,299 +392,299 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="A2">
+        <v>94.44521134805788</v>
+      </c>
+      <c r="B2">
+        <v>466246.3029839733</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+      <c r="A3">
+        <v>95.91369954303121</v>
+      </c>
+      <c r="B3">
+        <v>592028.0881757018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="A4">
+        <v>97.30876332825589</v>
+      </c>
+      <c r="B4">
+        <v>726097.4188398262</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+      <c r="A5">
+        <v>98.48355388423457</v>
+      </c>
+      <c r="B5">
+        <v>889859.0699109165</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
+      <c r="A6">
+        <v>99.59307829821444</v>
+      </c>
+      <c r="B6">
+        <v>1127599.148687516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
+      <c r="A7">
+        <v>100.8331349961919</v>
+      </c>
+      <c r="B7">
+        <v>1388825.238168718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
+      <c r="A8">
+        <v>102.3016231911653</v>
+      </c>
+      <c r="B8">
+        <v>1663425.843459376</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
+      <c r="A9">
+        <v>103.8435357958873</v>
+      </c>
+      <c r="B9">
+        <v>1947706.929734344</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
+      <c r="A10">
+        <v>105.3854484006093</v>
+      </c>
+      <c r="B10">
+        <v>2228985.227171157</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
+      <c r="A11">
+        <v>107.00078541508</v>
+      </c>
+      <c r="B11">
+        <v>2382126.926921287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+      <c r="A12">
+        <v>108.6161224295506</v>
+      </c>
+      <c r="B12">
+        <v>2311876.769497108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
+      <c r="A13">
+        <v>110.2314594440213</v>
+      </c>
+      <c r="B13">
+        <v>2061702.419694968</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
+      <c r="A14">
+        <v>111.846796458492</v>
+      </c>
+      <c r="B14">
+        <v>1868915.207040831</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
+      <c r="A15">
+        <v>113.4621334729627</v>
+      </c>
+      <c r="B15">
+        <v>1664032.300216536</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
+      <c r="A16">
+        <v>115.0774704874334</v>
+      </c>
+      <c r="B16">
+        <v>1426169.324659229</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
+      <c r="A17">
+        <v>116.692807501904</v>
+      </c>
+      <c r="B17">
+        <v>1200484.931852654</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
+      <c r="A18">
+        <v>118.3081445163747</v>
+      </c>
+      <c r="B18">
+        <v>990656.0369245395</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+      <c r="A19">
+        <v>119.8500571210967</v>
+      </c>
+      <c r="B19">
+        <v>825286.5778078069</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
+      <c r="A20">
+        <v>121.3919697258187</v>
+      </c>
+      <c r="B20">
+        <v>692425.162203158</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
+      <c r="A21">
+        <v>123.0073067402894</v>
+      </c>
+      <c r="B21">
+        <v>579661.0818937148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
+      <c r="A22">
+        <v>124.6226437547601</v>
+      </c>
+      <c r="B22">
+        <v>510982.7500857662</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
+      <c r="A23">
+        <v>126.2379807692308</v>
+      </c>
+      <c r="B23">
+        <v>445455.2816490011</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
+      <c r="A24">
+        <v>127.8533177837014</v>
+      </c>
+      <c r="B24">
+        <v>411972.7467630358</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
+      <c r="A25">
+        <v>129.4686547981721</v>
+      </c>
+      <c r="B25">
+        <v>377259.4016244682</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
+      <c r="A26">
+        <v>131.0839918126428</v>
+      </c>
+      <c r="B26">
+        <v>344784.6650687882</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
+      <c r="A27">
+        <v>132.6993288271135</v>
+      </c>
+      <c r="B27">
+        <v>318537.9068025002</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
+      <c r="A28">
+        <v>134.3146658415842</v>
+      </c>
+      <c r="B28">
+        <v>294201.8434004985</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
+      <c r="A29">
+        <v>135.9300028560548</v>
+      </c>
+      <c r="B29">
+        <v>275133.8257163923</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
+      <c r="A30">
+        <v>137.5453398705255</v>
+      </c>
+      <c r="B30">
+        <v>259110.4461769809</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
+      <c r="A31">
+        <v>139.1606768849962</v>
+      </c>
+      <c r="B31">
+        <v>245203.7641807391</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
+      <c r="A32">
+        <v>140.7760138994669</v>
+      </c>
+      <c r="B32">
+        <v>230232.1931776221</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
+      <c r="A33">
+        <v>142.3913509139376</v>
+      </c>
+      <c r="B33">
+        <v>217429.6487406931</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
+      <c r="A34">
+        <v>144.0066879284082</v>
+      </c>
+      <c r="B34">
+        <v>207077.3488132666</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+      <c r="A35">
+        <v>145.6220249428789</v>
+      </c>
+      <c r="B35">
+        <v>196878.7008198361</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
+      <c r="A36">
+        <v>147.2373619573496</v>
+      </c>
+      <c r="B36">
+        <v>185848.0803625075</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
+      <c r="A37">
+        <v>148.8526989718203</v>
+      </c>
+      <c r="B37">
+        <v>175774.2916010168</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
+      <c r="A38">
+        <v>149.8806407083016</v>
+      </c>
+      <c r="B38">
+        <v>170174.2808133796</v>
       </c>
     </row>
   </sheetData>
